--- a/4_code_predict_newdata/hypothesis_test1.xlsx
+++ b/4_code_predict_newdata/hypothesis_test1.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\PYTHON_C\DLBBT01\src\4_code_predict_newdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB6B299-1EF0-425F-8263-519B497F5D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D533B8A-32FE-497E-8F40-56421930037E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{EACF5E28-3395-4CEB-96C2-9714826D95C3}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{EACF5E28-3395-4CEB-96C2-9714826D95C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="couple" sheetId="1" r:id="rId1"/>
-    <sheet name="all" sheetId="2" r:id="rId2"/>
+    <sheet name="all" sheetId="2" r:id="rId1"/>
+    <sheet name="Am-Eu" sheetId="3" r:id="rId2"/>
+    <sheet name="Am-As" sheetId="5" r:id="rId3"/>
+    <sheet name="Am-Au" sheetId="6" r:id="rId4"/>
+    <sheet name="As-Aus" sheetId="1" r:id="rId5"/>
+    <sheet name="Eu-As" sheetId="7" r:id="rId6"/>
+    <sheet name="Eu-Au" sheetId="8" r:id="rId7"/>
+    <sheet name="As-Au" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="16">
   <si>
     <t>Continent</t>
   </si>
@@ -92,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -246,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -275,10 +281,10 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -293,10 +299,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -314,6 +320,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,414 +634,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F91B67-8F54-4EBC-B566-ADC1601D5C69}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="12.765625" customWidth="1"/>
-    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="14">
-        <v>65</v>
-      </c>
-      <c r="C3" s="15">
-        <v>4</v>
-      </c>
-      <c r="D3" s="15">
-        <v>7</v>
-      </c>
-      <c r="E3" s="15">
-        <v>4</v>
-      </c>
-      <c r="F3" s="15">
-        <v>9</v>
-      </c>
-      <c r="G3" s="15">
-        <v>6</v>
-      </c>
-      <c r="H3" s="6">
-        <f>SUM(B3:G3)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="14">
-        <v>29</v>
-      </c>
-      <c r="C4" s="15">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15">
-        <v>3</v>
-      </c>
-      <c r="E4" s="15">
-        <v>6</v>
-      </c>
-      <c r="F4" s="15">
-        <v>5</v>
-      </c>
-      <c r="G4" s="15">
-        <v>4</v>
-      </c>
-      <c r="H4" s="6">
-        <f>SUM(B4:G4)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9">
-        <f>SUM(B3:B4)</f>
-        <v>94</v>
-      </c>
-      <c r="C5" s="9">
-        <f t="shared" ref="C5" si="0">SUM(C3:C4)</f>
-        <v>6</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" ref="D5" si="1">SUM(D3:D4)</f>
-        <v>10</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" ref="E5" si="2">SUM(E3:E4)</f>
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" ref="F5" si="3">SUM(F3:F4)</f>
-        <v>14</v>
-      </c>
-      <c r="G5" s="9">
-        <f t="shared" ref="G5" si="4">SUM(G3:G4)</f>
-        <v>10</v>
-      </c>
-      <c r="H5" s="9">
-        <f t="shared" ref="H5" si="5">SUM(H3:H4)</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="25.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8">
-        <f>($H$3*B5/$H$5)</f>
-        <v>62.013888888888886</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" ref="C9:G9" si="6">($H$3*C5/$H$5)</f>
-        <v>3.9583333333333335</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="6"/>
-        <v>6.5972222222222223</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="6"/>
-        <v>6.5972222222222223</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="6"/>
-        <v>9.2361111111111107</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="6"/>
-        <v>6.5972222222222223</v>
-      </c>
-      <c r="H9" s="6">
-        <f>SUM(B9:G9)</f>
-        <v>95.000000000000014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8">
-        <f>($H$4*B5/$H$5)</f>
-        <v>31.986111111111111</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" ref="C10:G10" si="7">($H$4*C5/$H$5)</f>
-        <v>2.0416666666666665</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="7"/>
-        <v>3.4027777777777777</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="7"/>
-        <v>3.4027777777777777</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="7"/>
-        <v>4.7638888888888893</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="7"/>
-        <v>3.4027777777777777</v>
-      </c>
-      <c r="H10" s="6">
-        <f>SUM(B10:G10)</f>
-        <v>49.000000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9">
-        <f>SUM(B9:B10)</f>
-        <v>94</v>
-      </c>
-      <c r="C11" s="9">
-        <f t="shared" ref="C11:H11" si="8">SUM(C9:C10)</f>
-        <v>6</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="G11" s="9">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="H11" s="9">
-        <f t="shared" si="8"/>
-        <v>144.00000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16">
-        <f>((B3-B9)^2)/B9</f>
-        <v>0.14378810501430914</v>
-      </c>
-      <c r="C15" s="16">
-        <f t="shared" ref="C15:G15" si="9">((C3-C9)^2)/C9</f>
-        <v>4.3859649122806709E-4</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" si="9"/>
-        <v>2.4590643274853791E-2</v>
-      </c>
-      <c r="E15" s="16">
-        <f t="shared" si="9"/>
-        <v>1.0224853801169591</v>
-      </c>
-      <c r="F15" s="16">
-        <f t="shared" si="9"/>
-        <v>6.0359231411862791E-3</v>
-      </c>
-      <c r="G15" s="16">
-        <f t="shared" si="9"/>
-        <v>5.4064327485380134E-2</v>
-      </c>
-      <c r="H15" s="17">
-        <f>SUM(B15:G15)</f>
-        <v>1.2514029755239162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16">
-        <f>((B4-B10)^2)/B10</f>
-        <v>0.27877285666039459</v>
-      </c>
-      <c r="C16" s="16">
-        <f t="shared" ref="C16:G16" si="10">((C4-C10)^2)/C10</f>
-        <v>8.5034013605441588E-4</v>
-      </c>
-      <c r="D16" s="16">
-        <f t="shared" si="10"/>
-        <v>4.7675736961451227E-2</v>
-      </c>
-      <c r="E16" s="16">
-        <f t="shared" si="10"/>
-        <v>1.9823696145124721</v>
-      </c>
-      <c r="F16" s="16">
-        <f t="shared" si="10"/>
-        <v>1.1702299967606048E-2</v>
-      </c>
-      <c r="G16" s="16">
-        <f t="shared" si="10"/>
-        <v>0.10481859410430842</v>
-      </c>
-      <c r="H16" s="17">
-        <f>SUM(B16:G16)</f>
-        <v>2.4261894423422867</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="17">
-        <f>SUM(B15:B16)</f>
-        <v>0.42256096167470369</v>
-      </c>
-      <c r="C17" s="17">
-        <f t="shared" ref="C17" si="11">SUM(C15:C16)</f>
-        <v>1.288936627282483E-3</v>
-      </c>
-      <c r="D17" s="17">
-        <f t="shared" ref="D17" si="12">SUM(D15:D16)</f>
-        <v>7.2266380236305022E-2</v>
-      </c>
-      <c r="E17" s="17">
-        <f t="shared" ref="E17" si="13">SUM(E15:E16)</f>
-        <v>3.0048549946294312</v>
-      </c>
-      <c r="F17" s="17">
-        <f t="shared" ref="F17" si="14">SUM(F15:F16)</f>
-        <v>1.7738223108792327E-2</v>
-      </c>
-      <c r="G17" s="17">
-        <f t="shared" ref="G17" si="15">SUM(G15:G16)</f>
-        <v>0.15888292158968856</v>
-      </c>
-      <c r="H17" s="17">
-        <f t="shared" ref="H17" si="16">SUM(H15:H16)</f>
-        <v>3.6775924178662027</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864B49A8-0C6E-4C78-A168-0D7929DCEEF6}">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -1084,22 +683,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="12">
-        <v>1053</v>
+        <v>1060</v>
       </c>
       <c r="C3" s="13">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="D3" s="13">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="E3" s="13">
-        <v>200</v>
+        <v>377</v>
       </c>
       <c r="F3" s="13">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="G3" s="13">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H3" s="6">
         <v>1808</v>
@@ -1113,19 +712,19 @@
         <v>413</v>
       </c>
       <c r="C4" s="5">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D4" s="5">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="F4" s="5">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G4" s="5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H4" s="6">
         <v>704</v>
@@ -1136,22 +735,22 @@
         <v>15</v>
       </c>
       <c r="B5" s="14">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="15">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15">
+        <v>3</v>
+      </c>
+      <c r="G5" s="15">
         <v>2</v>
-      </c>
-      <c r="D5" s="15">
-        <v>3</v>
-      </c>
-      <c r="E5" s="15">
-        <v>6</v>
-      </c>
-      <c r="F5" s="15">
-        <v>5</v>
-      </c>
-      <c r="G5" s="15">
-        <v>4</v>
       </c>
       <c r="H5" s="6">
         <v>49</v>
@@ -1162,22 +761,22 @@
         <v>14</v>
       </c>
       <c r="B6" s="14">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C6" s="15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" s="15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6" s="15">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F6" s="15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6" s="6">
         <v>95</v>
@@ -1189,27 +788,27 @@
       </c>
       <c r="B7" s="9">
         <f>SUM(B3:B6)</f>
-        <v>1560</v>
+        <v>1547</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" ref="C7:H7" si="0">SUM(C3:C6)</f>
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>64</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>551</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
@@ -1263,27 +862,27 @@
       </c>
       <c r="B11" s="8">
         <f>($H$3*B7/$H$7)</f>
-        <v>1061.9277108433735</v>
+        <v>1053.0783132530121</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" ref="C11:G12" si="1">($H$3*C7/$H$7)</f>
-        <v>130.01807228915663</v>
+        <f t="shared" ref="C11:G11" si="1">($H$3*C7/$H$7)</f>
+        <v>168.81927710843374</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
-        <v>172.22289156626505</v>
+        <v>43.566265060240966</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="1"/>
-        <v>199.45180722891567</v>
+        <v>375.07831325301203</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="1"/>
-        <v>135.46385542168676</v>
+        <v>71.475903614457835</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="1"/>
-        <v>108.91566265060241</v>
+        <v>95.981927710843379</v>
       </c>
       <c r="H11" s="6">
         <f>SUM(B11:G11)</f>
@@ -1296,31 +895,31 @@
       </c>
       <c r="B12" s="8">
         <f>($H$4*B7/$H$7)</f>
-        <v>413.49397590361446</v>
+        <v>410.04819277108436</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" ref="C12:G12" si="2">($H$4*C7/$H$7)</f>
-        <v>50.626506024096386</v>
+        <v>65.734939759036138</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="2"/>
-        <v>67.060240963855421</v>
+        <v>16.963855421686748</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="2"/>
-        <v>77.662650602409641</v>
+        <v>146.04819277108433</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="2"/>
-        <v>52.746987951807228</v>
+        <v>27.831325301204821</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="2"/>
-        <v>42.409638554216869</v>
+        <v>37.373493975903614</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ref="H12:H15" si="3">SUM(B12:G12)</f>
-        <v>703.99999999999989</v>
+        <v>704</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -1329,31 +928,31 @@
       </c>
       <c r="B13" s="8">
         <f>($H$5*B7/$H$7)</f>
-        <v>28.78012048192771</v>
+        <v>28.540286144578314</v>
       </c>
       <c r="C13" s="8">
         <f t="shared" ref="C13:G13" si="4">($H$5*C7/$H$7)</f>
-        <v>3.5237198795180724</v>
+        <v>4.5753012048192767</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="4"/>
-        <v>4.6675451807228914</v>
+        <v>1.1807228915662651</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="4"/>
-        <v>5.4054969879518069</v>
+        <v>10.165286144578314</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="4"/>
-        <v>3.6713102409638556</v>
+        <v>1.9371234939759037</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="4"/>
-        <v>2.9518072289156625</v>
+        <v>2.6012801204819276</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="3"/>
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -1362,31 +961,31 @@
       </c>
       <c r="B14" s="8">
         <f>($H$6*B7/$H$7)</f>
-        <v>55.798192771084338</v>
+        <v>55.333207831325304</v>
       </c>
       <c r="C14" s="8">
         <f t="shared" ref="C14:G14" si="5">($H$6*C7/$H$7)</f>
-        <v>6.8317018072289155</v>
+        <v>8.8704819277108431</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="5"/>
-        <v>9.0493222891566258</v>
+        <v>2.2891566265060241</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="5"/>
-        <v>10.480045180722891</v>
+        <v>19.7082078313253</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="5"/>
-        <v>7.117846385542169</v>
+        <v>3.7556475903614457</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="5"/>
-        <v>5.7228915662650603</v>
+        <v>5.0432981927710845</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>95.000000000000014</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -1395,27 +994,27 @@
       </c>
       <c r="B15" s="9">
         <f>SUM(B11:B14)</f>
-        <v>1560</v>
+        <v>1547</v>
       </c>
       <c r="C15" s="9">
-        <f t="shared" ref="C15:H15" si="6">SUM(C11:C14)</f>
-        <v>191</v>
+        <f t="shared" ref="C15:G15" si="6">SUM(C11:C14)</f>
+        <v>248</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="6"/>
-        <v>253</v>
+        <v>64</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="6"/>
-        <v>293</v>
+        <v>551</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="6"/>
-        <v>199.00000000000003</v>
+        <v>105</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="6"/>
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="3"/>
@@ -1459,31 +1058,31 @@
       </c>
       <c r="B19" s="16">
         <f>((B3-B11)^2)/B11</f>
-        <v>7.5055976116856257E-2</v>
+        <v>4.5494952104210118E-2</v>
       </c>
       <c r="C19" s="16">
         <f t="shared" ref="C19:G19" si="7">((C3-C11)^2)/C11</f>
-        <v>0.1219503413273159</v>
+        <v>3.9759380083852691E-3</v>
       </c>
       <c r="D19" s="16">
         <f t="shared" si="7"/>
-        <v>0.44731354674706508</v>
+        <v>4.3181575860965649E-3</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" si="7"/>
-        <v>1.5067063991263255E-3</v>
+        <v>9.8456237619319684E-3</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" si="7"/>
-        <v>0.41124724807532831</v>
+        <v>0.419519290816871</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="7"/>
-        <v>8.7344066531612946E-2</v>
+        <v>9.2641324098881289E-2</v>
       </c>
       <c r="H19" s="17">
         <f>SUM(B19:G19)</f>
-        <v>1.1444178851973048</v>
+        <v>0.57579528637637623</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -1492,31 +1091,31 @@
       </c>
       <c r="B20" s="16">
         <f t="shared" ref="B20:G20" si="8">((B4-B12)^2)/B12</f>
-        <v>5.9012272867693899E-4</v>
+        <v>2.1249126493633617E-2</v>
       </c>
       <c r="C20" s="16">
         <f t="shared" si="8"/>
-        <v>2.7554291416020957E-3</v>
+        <v>1.0687912942091498E-3</v>
       </c>
       <c r="D20" s="16">
         <f t="shared" si="8"/>
-        <v>0.38183636450220559</v>
+        <v>0.22734973986856546</v>
       </c>
       <c r="E20" s="16">
         <f t="shared" si="8"/>
-        <v>0.36680821953653853</v>
+        <v>0.69132096775155316</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" si="8"/>
-        <v>0.34292216834446076</v>
+        <v>0.62439889427841189</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="8"/>
-        <v>0.45850219058050412</v>
+        <v>0.57272028151289889</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" ref="H20:H22" si="9">SUM(B20:G20)</f>
-        <v>1.5534144948339881</v>
+        <v>2.138107801199272</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -1525,31 +1124,31 @@
       </c>
       <c r="B21" s="16">
         <f t="shared" ref="B21:G21" si="10">((B5-B13)^2)/B13</f>
-        <v>1.6798749156752679E-3</v>
+        <v>0.22610332859477705</v>
       </c>
       <c r="C21" s="16">
         <f t="shared" si="10"/>
-        <v>0.65888389276735115</v>
+        <v>7.2338729506571289E-2</v>
       </c>
       <c r="D21" s="16">
         <f t="shared" si="10"/>
-        <v>0.59575361824809914</v>
+        <v>2.7661667076469148E-2</v>
       </c>
       <c r="E21" s="16">
         <f t="shared" si="10"/>
-        <v>6.538415100815613E-2</v>
+        <v>0.79049448562798141</v>
       </c>
       <c r="F21" s="16">
         <f t="shared" si="10"/>
-        <v>0.48086823501574738</v>
+        <v>0.58318763391759443</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" si="10"/>
-        <v>0.37221539218096888</v>
+        <v>0.13898456396144712</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="9"/>
-        <v>2.1747851641359977</v>
+        <v>1.8387704086848404</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -1558,31 +1157,31 @@
       </c>
       <c r="B22" s="16">
         <f t="shared" ref="B22:G22" si="11">((B6-B14)^2)/B14</f>
-        <v>1.5174910166983724</v>
+        <v>0.97185648916900602</v>
       </c>
       <c r="C22" s="16">
         <f t="shared" si="11"/>
-        <v>1.1737244029853222</v>
+        <v>0.14382657966330525</v>
       </c>
       <c r="D22" s="16">
         <f t="shared" si="11"/>
-        <v>0.46409241605489959</v>
+        <v>1.2786303107165504</v>
       </c>
       <c r="E22" s="16">
         <f t="shared" si="11"/>
-        <v>4.0067561561135863</v>
+        <v>1.4208833495218822</v>
       </c>
       <c r="F22" s="16">
         <f t="shared" si="11"/>
-        <v>0.49769298697036213</v>
+        <v>1.5898216927861836E-2</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" si="11"/>
-        <v>1.3417882054533915E-2</v>
+        <v>0.2158252551077772</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="9"/>
-        <v>7.6731748608770767</v>
+        <v>4.0469202011063823</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -1591,32 +1190,2906 @@
       </c>
       <c r="B23" s="17">
         <f>SUM(B19:B22)</f>
-        <v>1.5948169904595808</v>
+        <v>1.2647038963616268</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" ref="C23:H23" si="12">SUM(C19:C22)</f>
-        <v>1.9573140662215913</v>
+        <v>0.22121003847247095</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="12"/>
-        <v>1.8889959455522694</v>
+        <v>1.5379598752476817</v>
       </c>
       <c r="E23" s="17">
         <f t="shared" si="12"/>
-        <v>4.4404552330574072</v>
+        <v>2.9125444266633487</v>
       </c>
       <c r="F23" s="17">
         <f t="shared" si="12"/>
-        <v>1.7327306384058985</v>
+        <v>1.6430040359407392</v>
       </c>
       <c r="G23" s="17">
         <f t="shared" si="12"/>
-        <v>0.93147953134761985</v>
+        <v>1.0201714246810045</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="12"/>
-        <v>12.545792405044367</v>
-      </c>
+        <v>8.5995936973668705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6461FC2-349B-4C5C-AF6E-6A4245B8A9E0}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.765625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1060</v>
+      </c>
+      <c r="C3" s="13">
+        <v>168</v>
+      </c>
+      <c r="D3" s="13">
+        <v>44</v>
+      </c>
+      <c r="E3" s="13">
+        <v>377</v>
+      </c>
+      <c r="F3" s="13">
+        <v>66</v>
+      </c>
+      <c r="G3" s="13">
+        <v>93</v>
+      </c>
+      <c r="H3" s="6">
+        <f>SUM(B3:G3)</f>
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="18">
+        <v>413</v>
+      </c>
+      <c r="C4" s="5">
+        <v>66</v>
+      </c>
+      <c r="D4" s="5">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5">
+        <v>136</v>
+      </c>
+      <c r="F4" s="5">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5">
+        <v>42</v>
+      </c>
+      <c r="H4" s="6">
+        <f>SUM(B4:G4)</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <f>SUM(B3:B4)</f>
+        <v>1473</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" ref="C5:H5" si="0">SUM(C3:C4)</f>
+        <v>234</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <f>($H$3*B5/$H$5)</f>
+        <v>1060.1847133757963</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:G9" si="1">($H$3*C5/$H$5)</f>
+        <v>168.4203821656051</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>42.464968152866241</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>369.22929936305735</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>70.535031847133752</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>97.165605095541395</v>
+      </c>
+      <c r="H9" s="6">
+        <f>SUM(B9:G9)</f>
+        <v>1808.0000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <f>($H$4*B5/$H$5)</f>
+        <v>412.81528662420385</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:G10" si="2">($H$4*C5/$H$5)</f>
+        <v>65.579617834394909</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="2"/>
+        <v>16.535031847133759</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
+        <v>143.77070063694268</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>27.464968152866241</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
+        <v>37.834394904458598</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(B10:G10)</f>
+        <v>704.00000000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <f>SUM(B9:B10)</f>
+        <v>1473</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" ref="C11:H11" si="3">SUM(C9:C10)</f>
+        <v>234</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="3"/>
+        <v>513</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="3"/>
+        <v>2512.0000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16">
+        <f>((B3-B9)^2)/B9</f>
+        <v>3.2182157285980258E-5</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ref="C15:G16" si="4">((C3-C9)^2)/C9</f>
+        <v>1.0492860952249271E-3</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="4"/>
+        <v>5.5488626842543277E-2</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="4"/>
+        <v>0.16354007792216529</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="4"/>
+        <v>0.29157871366798149</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="4"/>
+        <v>0.17858444657384911</v>
+      </c>
+      <c r="H15" s="17">
+        <f>SUM(B15:G15)</f>
+        <v>0.69027333325905005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="16">
+        <f>((B4-B10)^2)/B10</f>
+        <v>8.2649631211620273E-5</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="4"/>
+        <v>2.6947574718274715E-3</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.14250488257289523</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.42000065466374575</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.74882715101095476</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.45863732870102303</v>
+      </c>
+      <c r="H16" s="17">
+        <f>SUM(B16:G16)</f>
+        <v>1.7727474240516579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="17">
+        <f>SUM(B15:B16)</f>
+        <v>1.1483178849760053E-4</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" ref="C17:H17" si="5">SUM(C15:C16)</f>
+        <v>3.7440435670523988E-3</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.1979935094154385</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.58354073258591099</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="5"/>
+        <v>1.0404058646789363</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.63722177527487212</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="5"/>
+        <v>2.4630207573107077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D21" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E786EF9-749F-4398-B34A-C18538B1CF7B}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.765625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1060</v>
+      </c>
+      <c r="C3" s="13">
+        <v>168</v>
+      </c>
+      <c r="D3" s="13">
+        <v>44</v>
+      </c>
+      <c r="E3" s="13">
+        <v>377</v>
+      </c>
+      <c r="F3" s="13">
+        <v>66</v>
+      </c>
+      <c r="G3" s="13">
+        <v>93</v>
+      </c>
+      <c r="H3" s="6">
+        <f>SUM(B3:G3)</f>
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="14">
+        <v>48</v>
+      </c>
+      <c r="C4" s="15">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15">
+        <v>4</v>
+      </c>
+      <c r="E4" s="15">
+        <v>25</v>
+      </c>
+      <c r="F4" s="15">
+        <v>4</v>
+      </c>
+      <c r="G4" s="15">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6">
+        <f>SUM(B4:G4)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <f>SUM(B3:B4)</f>
+        <v>1108</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" ref="C5:H5" si="0">SUM(C3:C4)</f>
+        <v>178</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>402</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <f>($H$3*B5/$H$5)</f>
+        <v>1052.6873357856016</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:G9" si="1">($H$3*C5/$H$5)</f>
+        <v>169.11403047819232</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>45.603783499737254</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>381.93168681029954</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>66.505517603783503</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>92.157645822385703</v>
+      </c>
+      <c r="H9" s="6">
+        <f>SUM(B9:G9)</f>
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <f>($H$4*B5/$H$5)</f>
+        <v>55.312664214398318</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:G10" si="2">($H$4*C5/$H$5)</f>
+        <v>8.885969521807672</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="2"/>
+        <v>2.3962165002627431</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
+        <v>20.068313189700472</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>3.4944823962165001</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
+        <v>4.8423541776142933</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(B10:G10)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <f>SUM(B9:B10)</f>
+        <v>1108</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" ref="C11:H11" si="3">SUM(C9:C10)</f>
+        <v>178</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="3"/>
+        <v>402</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="3"/>
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16">
+        <f>((B3-B9)^2)/B9</f>
+        <v>5.0798614265303799E-2</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ref="C15:G16" si="4">((C3-C9)^2)/C9</f>
+        <v>7.3386217739127542E-3</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="4"/>
+        <v>5.6401493837551754E-2</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="4"/>
+        <v>6.3680327228158543E-2</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="4"/>
+        <v>3.842508966812042E-3</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="4"/>
+        <v>7.699421509874349E-3</v>
+      </c>
+      <c r="H15" s="17">
+        <f>SUM(B15:G15)</f>
+        <v>0.18976098758161325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="16">
+        <f>((B4-B10)^2)/B10</f>
+        <v>0.96677783780702053</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.13966555965509969</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="4"/>
+        <v>1.0734094827188834</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="4"/>
+        <v>1.211937175036949</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="4"/>
+        <v>7.312901275785369E-2</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.146532148314239</v>
+      </c>
+      <c r="H16" s="17">
+        <f>SUM(B16:G16)</f>
+        <v>3.6114512162900452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="17">
+        <f>SUM(B15:B16)</f>
+        <v>1.0175764520723243</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" ref="C17:H17" si="5">SUM(C15:C16)</f>
+        <v>0.14700418142901245</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="5"/>
+        <v>1.129810976556435</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="5"/>
+        <v>1.2756175022651075</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="5"/>
+        <v>7.6971521724665731E-2</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.15423156982411335</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="5"/>
+        <v>3.8012122038716583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D21" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C579983-8FF4-4539-BEFC-8708A8E41143}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.765625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1060</v>
+      </c>
+      <c r="C3" s="13">
+        <v>168</v>
+      </c>
+      <c r="D3" s="13">
+        <v>44</v>
+      </c>
+      <c r="E3" s="13">
+        <v>377</v>
+      </c>
+      <c r="F3" s="13">
+        <v>66</v>
+      </c>
+      <c r="G3" s="13">
+        <v>93</v>
+      </c>
+      <c r="H3" s="6">
+        <f>SUM(B3:G3)</f>
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14">
+        <v>26</v>
+      </c>
+      <c r="C4" s="15">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
+        <f>SUM(B4:G4)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <f>SUM(B3:B4)</f>
+        <v>1086</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" ref="C5:H5" si="0">SUM(C3:C4)</f>
+        <v>172</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <f>($H$3*B5/$H$5)</f>
+        <v>1057.3441033925687</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:G9" si="1">($H$3*C5/$H$5)</f>
+        <v>167.46149703823372</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>43.812600969305329</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>379.70920840064622</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>67.179321486268179</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>92.493268712977923</v>
+      </c>
+      <c r="H9" s="6">
+        <f>SUM(B9:G9)</f>
+        <v>1808.0000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <f>($H$4*B5/$H$5)</f>
+        <v>28.655896607431341</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:G10" si="2">($H$4*C5/$H$5)</f>
+        <v>4.53850296176629</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="2"/>
+        <v>1.1873990306946689</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
+        <v>10.290791599353797</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>1.8206785137318255</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
+        <v>2.5067312870220788</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(B10:G10)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <f>SUM(B9:B10)</f>
+        <v>1086</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" ref="C11:H11" si="3">SUM(C9:C10)</f>
+        <v>172</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="3"/>
+        <v>390</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="3"/>
+        <v>1857.0000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16">
+        <f>((B3-B9)^2)/B9</f>
+        <v>6.6712310275645016E-3</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ref="C15:G16" si="4">((C3-C9)^2)/C9</f>
+        <v>1.7316544098781828E-3</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="4"/>
+        <v>8.0155927583267211E-4</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="4"/>
+        <v>1.9330082062132974E-2</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="4"/>
+        <v>2.0702786768367024E-2</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="4"/>
+        <v>2.7761652368873653E-3</v>
+      </c>
+      <c r="H15" s="17">
+        <f>SUM(B15:G15)</f>
+        <v>5.2013478780662724E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
+        <f>((B4-B10)^2)/B10</f>
+        <v>0.24615481015994617</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="4"/>
+        <v>6.3894513735914829E-2</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="4"/>
+        <v>2.9575901442968167E-2</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.71324057894563264</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.76389058116749531</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.10243483159780373</v>
+      </c>
+      <c r="H16" s="17">
+        <f>SUM(B16:G16)</f>
+        <v>1.9191912170497609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="17">
+        <f>SUM(B15:B16)</f>
+        <v>0.25282604118751068</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" ref="C17:H17" si="5">SUM(C15:C16)</f>
+        <v>6.5626168145793015E-2</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="5"/>
+        <v>3.037746071880084E-2</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.73257066100776558</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.78459336793586232</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.1052109968346911</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="5"/>
+        <v>1.9712046958304237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D21" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F91B67-8F54-4EBC-B566-ADC1601D5C69}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.765625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="14">
+        <v>48</v>
+      </c>
+      <c r="C3" s="15">
+        <v>10</v>
+      </c>
+      <c r="D3" s="15">
+        <v>4</v>
+      </c>
+      <c r="E3" s="15">
+        <v>25</v>
+      </c>
+      <c r="F3" s="15">
+        <v>4</v>
+      </c>
+      <c r="G3" s="15">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6">
+        <f>SUM(B3:G3)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14">
+        <v>26</v>
+      </c>
+      <c r="C4" s="15">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
+        <f>SUM(B4:G4)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <f>SUM(B3:B4)</f>
+        <v>74</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" ref="C5" si="0">SUM(C3:C4)</f>
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ref="D5" si="1">SUM(D3:D4)</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" ref="E5" si="2">SUM(E3:E4)</f>
+        <v>38</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5" si="3">SUM(F3:F4)</f>
+        <v>7</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" ref="G5" si="4">SUM(G3:G4)</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" ref="H5" si="5">SUM(H3:H4)</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <f>($H$3*B5/$H$5)</f>
+        <v>48.819444444444443</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:G9" si="6">($H$3*C5/$H$5)</f>
+        <v>9.2361111111111107</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="6"/>
+        <v>3.2986111111111112</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="6"/>
+        <v>25.069444444444443</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="6"/>
+        <v>4.6180555555555554</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="6"/>
+        <v>3.9583333333333335</v>
+      </c>
+      <c r="H9" s="6">
+        <f>SUM(B9:G9)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <f>($H$4*B5/$H$5)</f>
+        <v>25.180555555555557</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:G10" si="7">($H$4*C5/$H$5)</f>
+        <v>4.7638888888888893</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="7"/>
+        <v>1.7013888888888888</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="7"/>
+        <v>12.930555555555555</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="7"/>
+        <v>2.3819444444444446</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="7"/>
+        <v>2.0416666666666665</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(B10:G10)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <f>SUM(B9:B10)</f>
+        <v>74</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" ref="C11:H11" si="8">SUM(C9:C10)</f>
+        <v>14</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="8"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16">
+        <f>((B3-B9)^2)/B9</f>
+        <v>1.375454401770186E-2</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ref="C15:G15" si="9">((C3-C9)^2)/C9</f>
+        <v>6.3178780284043515E-2</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="9"/>
+        <v>0.14913742690058476</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="9"/>
+        <v>1.9236688211756589E-4</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="9"/>
+        <v>8.2717209690893842E-2</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="9"/>
+        <v>4.3859649122806709E-4</v>
+      </c>
+      <c r="H15" s="17">
+        <f>SUM(B15:G15)</f>
+        <v>0.30941892426656964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
+        <f>((B4-B10)^2)/B10</f>
+        <v>2.6666973095544416E-2</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" ref="C16:G16" si="10">((C4-C10)^2)/C10</f>
+        <v>0.12248947197926802</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="10"/>
+        <v>0.28914399092970516</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="10"/>
+        <v>3.7295620002387135E-4</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="10"/>
+        <v>0.16037010042112071</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="10"/>
+        <v>8.5034013605441588E-4</v>
+      </c>
+      <c r="H16" s="17">
+        <f>SUM(B16:G16)</f>
+        <v>0.59989383276171671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="17">
+        <f>SUM(B15:B16)</f>
+        <v>4.0421517113246277E-2</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" ref="C17" si="11">SUM(C15:C16)</f>
+        <v>0.18566825226331152</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" ref="D17" si="12">SUM(D15:D16)</f>
+        <v>0.43828141783028995</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" ref="E17" si="13">SUM(E15:E16)</f>
+        <v>5.6532308214143727E-4</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" ref="F17" si="14">SUM(F15:F16)</f>
+        <v>0.24308731011201457</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" ref="G17" si="15">SUM(G15:G16)</f>
+        <v>1.288936627282483E-3</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" ref="H17" si="16">SUM(H15:H16)</f>
+        <v>0.9093127570282864</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C94468-3C7C-4062-8B35-59985A5A41F9}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.765625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="18">
+        <v>413</v>
+      </c>
+      <c r="C3" s="5">
+        <v>66</v>
+      </c>
+      <c r="D3" s="5">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5">
+        <v>136</v>
+      </c>
+      <c r="F3" s="5">
+        <v>32</v>
+      </c>
+      <c r="G3" s="5">
+        <v>42</v>
+      </c>
+      <c r="H3" s="6">
+        <f>SUM(B3:G3)</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="14">
+        <v>48</v>
+      </c>
+      <c r="C4" s="15">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15">
+        <v>4</v>
+      </c>
+      <c r="E4" s="15">
+        <v>25</v>
+      </c>
+      <c r="F4" s="15">
+        <v>4</v>
+      </c>
+      <c r="G4" s="15">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6">
+        <f>SUM(B4:G4)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <f>SUM(B3:B4)</f>
+        <v>461</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" ref="C5:H5" si="0">SUM(C3:C4)</f>
+        <v>76</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <f>($H$3*B5/$H$5)</f>
+        <v>406.18773466833539</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:G9" si="1">($H$3*C5/$H$5)</f>
+        <v>66.963704630788484</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>16.740926157697121</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>141.85732165206508</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>31.719649561952441</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>40.530663329161449</v>
+      </c>
+      <c r="H9" s="6">
+        <f>SUM(B9:G9)</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <f>($H$4*B5/$H$5)</f>
+        <v>54.812265331664584</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:G10" si="2">($H$4*C5/$H$5)</f>
+        <v>9.0362953692115138</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="2"/>
+        <v>2.2590738423028784</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
+        <v>19.142678347934918</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>4.2803504380475594</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
+        <v>5.4693366708385485</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(B10:G10)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <f>SUM(B9:B10)</f>
+        <v>461</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" ref="C11:H11" si="3">SUM(C9:C10)</f>
+        <v>76</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="3"/>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="16">
+        <f>((B3-B9)^2)/B9</f>
+        <v>0.11425002526699178</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ref="C15:G16" si="4">((C3-C9)^2)/C9</f>
+        <v>1.3869104472696101E-2</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="4"/>
+        <v>0.18104278449137973</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="4"/>
+        <v>0.24185016702837894</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="4"/>
+        <v>2.4778447807233786E-3</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="4"/>
+        <v>5.3267084102163492E-2</v>
+      </c>
+      <c r="H15" s="17">
+        <f>SUM(B15:G15)</f>
+        <v>0.60675701014233341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="16">
+        <f>((B4-B10)^2)/B10</f>
+        <v>0.84665281882064947</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.10277736367134833</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="4"/>
+        <v>1.3416223187571725</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="4"/>
+        <v>1.7922370272418819</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="4"/>
+        <v>1.8362133953992197E-2</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.39473712850445219</v>
+      </c>
+      <c r="H16" s="17">
+        <f>SUM(B16:G16)</f>
+        <v>4.4963887909494975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="17">
+        <f>SUM(B15:B16)</f>
+        <v>0.96090284408764126</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" ref="C17:H17" si="5">SUM(C15:C16)</f>
+        <v>0.11664646814404443</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="5"/>
+        <v>1.5226651032485523</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="5"/>
+        <v>2.0340871942702607</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="5"/>
+        <v>2.0839978734715575E-2</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.44800421260661571</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="5"/>
+        <v>5.1031458010918307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D21" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC89F4E-6C11-4F70-83AA-663FFB5C5A2F}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.765625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="18">
+        <v>413</v>
+      </c>
+      <c r="C3" s="5">
+        <v>66</v>
+      </c>
+      <c r="D3" s="5">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5">
+        <v>136</v>
+      </c>
+      <c r="F3" s="5">
+        <v>32</v>
+      </c>
+      <c r="G3" s="5">
+        <v>42</v>
+      </c>
+      <c r="H3" s="6">
+        <f>SUM(B3:G3)</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14">
+        <v>26</v>
+      </c>
+      <c r="C4" s="15">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
+        <f>SUM(B4:G4)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <f>SUM(B3:B4)</f>
+        <v>439</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" ref="C5:H5" si="0">SUM(C3:C4)</f>
+        <v>70</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <f>($H$3*B5/$H$5)</f>
+        <v>410.43293492695881</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:G9" si="1">($H$3*C5/$H$5)</f>
+        <v>65.44488711819389</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>14.95883134130146</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>139.30411686586984</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>32.722443559096945</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>41.136786188579016</v>
+      </c>
+      <c r="H9" s="6">
+        <f>SUM(B9:G9)</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <f>($H$4*B5/$H$5)</f>
+        <v>28.567065073041167</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:G10" si="2">($H$4*C5/$H$5)</f>
+        <v>4.5551128818061093</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0411686586985391</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
+        <v>9.6958831341301455</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>2.2775564409030546</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
+        <v>2.8632138114209829</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(B10:G10)</f>
+        <v>48.999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <f>SUM(B9:B10)</f>
+        <v>439</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" ref="C11:H11" si="3">SUM(C9:C10)</f>
+        <v>70</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="3"/>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="16">
+        <f>((B3-B9)^2)/B9</f>
+        <v>1.6055785314598878E-2</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ref="C15:G16" si="4">((C3-C9)^2)/C9</f>
+        <v>4.7085467653196957E-3</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="4"/>
+        <v>1.1330152873355534E-4</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="4"/>
+        <v>7.8369458914392801E-2</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="4"/>
+        <v>1.5950052603439031E-2</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="4"/>
+        <v>1.8113667917860284E-2</v>
+      </c>
+      <c r="H15" s="17">
+        <f>SUM(B15:G15)</f>
+        <v>0.13331081304434425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
+        <f>((B4-B10)^2)/B10</f>
+        <v>0.23067903798933448</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="4"/>
+        <v>6.764932495479703E-2</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="4"/>
+        <v>1.6278423720085615E-3</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="4"/>
+        <v>1.1259612056272019</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.22915993944532836</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.26024535130966553</v>
+      </c>
+      <c r="H16" s="17">
+        <f>SUM(B16:G16)</f>
+        <v>1.9153227016983361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="17">
+        <f>SUM(B15:B16)</f>
+        <v>0.24673482330393337</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" ref="C17:H17" si="5">SUM(C15:C16)</f>
+        <v>7.235787172011672E-2</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="5"/>
+        <v>1.7411439007421169E-3</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="5"/>
+        <v>1.2043306645415948</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.24510999204876741</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.27835901922752582</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="5"/>
+        <v>2.0486335147426802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D21" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C132E6BB-CCE9-420E-A7AF-9D690A3312EF}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.765625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="14">
+        <v>48</v>
+      </c>
+      <c r="C3" s="15">
+        <v>10</v>
+      </c>
+      <c r="D3" s="15">
+        <v>4</v>
+      </c>
+      <c r="E3" s="15">
+        <v>25</v>
+      </c>
+      <c r="F3" s="15">
+        <v>4</v>
+      </c>
+      <c r="G3" s="15">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6">
+        <f>SUM(B3:G3)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14">
+        <v>26</v>
+      </c>
+      <c r="C4" s="15">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
+        <f>SUM(B4:G4)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <f>SUM(B3:B4)</f>
+        <v>74</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" ref="C5:H5" si="0">SUM(C3:C4)</f>
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <f>($H$3*B5/$H$5)</f>
+        <v>48.819444444444443</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:G9" si="1">($H$3*C5/$H$5)</f>
+        <v>9.2361111111111107</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>3.2986111111111112</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>25.069444444444443</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>4.6180555555555554</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>3.9583333333333335</v>
+      </c>
+      <c r="H9" s="6">
+        <f>SUM(B9:G9)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <f>($H$4*B5/$H$5)</f>
+        <v>25.180555555555557</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:G10" si="2">($H$4*C5/$H$5)</f>
+        <v>4.7638888888888893</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7013888888888888</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
+        <v>12.930555555555555</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>2.3819444444444446</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0416666666666665</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(B10:G10)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <f>SUM(B9:B10)</f>
+        <v>74</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" ref="C11:H11" si="3">SUM(C9:C10)</f>
+        <v>14</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16">
+        <f>((B3-B9)^2)/B9</f>
+        <v>1.375454401770186E-2</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ref="C15:G16" si="4">((C3-C9)^2)/C9</f>
+        <v>6.3178780284043515E-2</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="4"/>
+        <v>0.14913742690058476</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="4"/>
+        <v>1.9236688211756589E-4</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="4"/>
+        <v>8.2717209690893842E-2</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="4"/>
+        <v>4.3859649122806709E-4</v>
+      </c>
+      <c r="H15" s="17">
+        <f>SUM(B15:G15)</f>
+        <v>0.30941892426656964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
+        <f>((B4-B10)^2)/B10</f>
+        <v>2.6666973095544416E-2</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.12248947197926802</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.28914399092970516</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="4"/>
+        <v>3.7295620002387135E-4</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.16037010042112071</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="4"/>
+        <v>8.5034013605441588E-4</v>
+      </c>
+      <c r="H16" s="17">
+        <f>SUM(B16:G16)</f>
+        <v>0.59989383276171671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="17">
+        <f>SUM(B15:B16)</f>
+        <v>4.0421517113246277E-2</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" ref="C17:H17" si="5">SUM(C15:C16)</f>
+        <v>0.18566825226331152</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.43828141783028995</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="5"/>
+        <v>5.6532308214143727E-4</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.24308731011201457</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="5"/>
+        <v>1.288936627282483E-3</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.9093127570282864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D21" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
